--- a/testexcelwb.xlsx
+++ b/testexcelwb.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer_DB" sheetId="1" r:id="rId1"/>
+    <sheet name="email_opts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>to_email</t>
+  </si>
+  <si>
+    <t>emailed_date</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Big Nips</t>
+  </si>
+  <si>
+    <t>McGee</t>
+  </si>
+  <si>
+    <t>IOUA Hug</t>
+  </si>
+  <si>
+    <t>webdevinci.code@gmail.com</t>
+  </si>
+  <si>
+    <t>Signage</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
   <si>
     <t xml:space="preserve">Josh </t>
   </si>
@@ -27,65 +67,49 @@
     <t>Davis</t>
   </si>
   <si>
+    <t>Innovation Inc</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
     <t>Joshua</t>
   </si>
   <si>
     <t>Dongles</t>
   </si>
   <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t>Email Body</t>
-  </si>
-  <si>
-    <t>Innovation Inc</t>
-  </si>
-  <si>
     <t>Your Mom</t>
   </si>
   <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>webdevinci.code@gmail.com</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>to_email</t>
-  </si>
-  <si>
-    <t>This is HTML1 for {first_name} {last_name} from {company} whose email is {to_email}.</t>
-  </si>
-  <si>
-    <t>This is HTML2 for the great {first_name} of family {last_name} residing from {company} whose email is {to_email}.</t>
-  </si>
-  <si>
-    <t>Big Nips</t>
-  </si>
-  <si>
-    <t>McGee</t>
-  </si>
-  <si>
-    <t>IOUA Hug</t>
+    <t>Email Index</t>
+  </si>
+  <si>
+    <t>Email Content</t>
+  </si>
+  <si>
+    <t>HTML 2</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+&lt;body&gt;
+Good morning {first_name},&lt;br&gt;&lt;br&gt;
+We've noticed that the pandemic has significantly impacted our customer's ability to procure some key items lately, due to global shortages in supply.  For example, the structural adhesives Weld-On 45 and Lord 406, often used by signage companies similar to {company} for structural bonding, have experienced a major shortage and are no longer readily available. I'm not sure if {company} currently uses these adhesives, but wanted to make sure you were aware of your options for alternatives.  Adheco stocks 3M's line of structural adhesives (such as DP-8405) which is an excellent alternative performance wise, and is readily available.  I've attached the technical datasheet of this product for your review.  If you'd like more info on this product or similar, I'd be happy to provide.&lt;br&gt;&lt;br&gt;
+{first_name}, is this something you might be interested in?&lt;br&gt;&lt;br&gt;
+Let me know!&lt;br&gt;&lt;br&gt;
+Thanks,&lt;br&gt;&lt;br&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +133,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC3E88D"/>
+      <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF78C6C"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,21 +161,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -475,101 +516,107 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -588,4 +635,69 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="146.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="255">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="B14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/testexcelwb.xlsx
+++ b/testexcelwb.xlsx
@@ -1,158 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="16340" tabRatio="500"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer_DB" sheetId="1" r:id="rId1"/>
-    <sheet name="email_opts" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Customer_DB" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="email_opts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>to_email</t>
-  </si>
-  <si>
-    <t>emailed_date</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Big Nips</t>
-  </si>
-  <si>
-    <t>McGee</t>
-  </si>
-  <si>
-    <t>IOUA Hug</t>
-  </si>
-  <si>
-    <t>webdevinci.code@gmail.com</t>
-  </si>
-  <si>
-    <t>Signage</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josh </t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Innovation Inc</t>
-  </si>
-  <si>
-    <t>Automotive</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Dongles</t>
-  </si>
-  <si>
-    <t>Your Mom</t>
-  </si>
-  <si>
-    <t>Email Index</t>
-  </si>
-  <si>
-    <t>Email Content</t>
-  </si>
-  <si>
-    <t>HTML 2</t>
-  </si>
-  <si>
-    <t>&lt;html&gt;
-&lt;body&gt;
-Good morning {first_name},&lt;br&gt;&lt;br&gt;
-We've noticed that the pandemic has significantly impacted our customer's ability to procure some key items lately, due to global shortages in supply.  For example, the structural adhesives Weld-On 45 and Lord 406, often used by signage companies similar to {company} for structural bonding, have experienced a major shortage and are no longer readily available. I'm not sure if {company} currently uses these adhesives, but wanted to make sure you were aware of your options for alternatives.  Adheco stocks 3M's line of structural adhesives (such as DP-8405) which is an excellent alternative performance wise, and is readily available.  I've attached the technical datasheet of this product for your review.  If you'd like more info on this product or similar, I'd be happy to provide.&lt;br&gt;&lt;br&gt;
-{first_name}, is this something you might be interested in?&lt;br&gt;&lt;br&gt;
-Let me know!&lt;br&gt;&lt;br&gt;
-Thanks,&lt;br&gt;&lt;br&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Monaco"/>
+      <color rgb="FFC3E88D"/>
       <sz val="12"/>
-      <color rgb="FFC3E88D"/>
-      <name val="Monaco"/>
     </font>
     <font>
+      <name val="Monaco"/>
+      <color rgb="FFF78C6C"/>
       <sz val="12"/>
-      <color rgb="FFF78C6C"/>
-      <name val="Monaco"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,33 +70,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -512,192 +438,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col width="12.875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="25.125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="23.875" customWidth="1" min="5" max="5"/>
+    <col width="13.5" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>last_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>to_email</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>emailed_date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jman</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IOUA Hug</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>josh@adheco.com</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44258.72448172706</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Signage</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>IOUA Hug</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>'NoneType' object is not iterable</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Signage</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Josh </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Innovation Inc</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>josh@adheco.com</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dongles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fake Company</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>josh@adheco.com</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>44258.72451071371</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Signage</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="146.5" customWidth="1"/>
+    <col width="146.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="255">
-      <c r="A2" s="4">
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Email Index</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Email Content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="409.5" customHeight="1">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4">
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>&lt;html&gt;
+&lt;body&gt;
+&lt;span class="msg"&gt;
+Good morning {first_name},&lt;br&gt;&lt;br&gt;
+We've noticed that the pandemic has significantly impacted our customer's ability to procure some key items lately, due to global shortages in supply.  For example, the structural adhesives Weld-On 45 and Lord 406, often used by signage companies similar to {company} for structural bonding, have experienced a major shortage and are no longer readily available. I'm not sure if {company} currently uses these adhesives, but wanted to make sure you were aware of your options for alternatives.  Adheco stocks 3M's line of structural adhesives (such as DP-8405) which is an excellent alternative performance wise, and is readily available.  I've attached the technical datasheet of this product for your review.  If you'd like more info on this product or similar, I'd be happy to provide.&lt;br&gt;&lt;br&gt;
+{first_name}, is this something you might be interested in?&lt;br&gt;&lt;br&gt;
+Let me know!&lt;br&gt;&lt;br&gt;
+Thanks,&lt;br&gt;&lt;br&gt;&lt;br&gt;
+&lt;/span&gt;
+&lt;span style="font-size:1.2em;font-weight:bold;"&gt;Josh Davis, P.Eng.&lt;/span&gt;&lt;br&gt;
+&lt;span style="font-size:1.05rem;"&gt;Applications Engineer&lt;/span&gt;&lt;br&gt;&lt;br&gt;
+&lt;span style="font-size:1.05rem;font-weight:bold;color:darkblue;"&gt;Adheco Ltd.&lt;/span&gt;&lt;br&gt;
+&lt;span style="font-size:0.9rem;text-decoration:none;"&gt; 
+  Cell:  &lt;span style="font-weight:bold;"&gt;647-290-0178&lt;/span&gt;&lt;br&gt;
+  50 Ironside Crescent, Unit 6&lt;br&gt;
+  Scarborough, ON, M1X 1G4&lt;br&gt;
+&lt;/span&gt;
+  &lt;span style="font-size:0.9rem"&gt;&lt;a href="www.adheco.com"&gt;www.adheco.com&lt;/a&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="284.25" customHeight="1">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" ht="16">
-      <c r="B14" s="5"/>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>&lt;html&gt;
+&lt;body&gt;
+&lt;span class="msg"&gt;
+Good morning {first_name},&lt;br&gt;&lt;br&gt;
+We've noticed that the pandemic has significantly impacted our customer's ability to procure some key items lately, due to global shortages in supply.  For example, the structural adhesives Weld-On 45 and Lord 406, often used by signage companies similar to {company} for structural bonding, have experienced a major shortage and are no longer readily available. I'm not sure if {company} currently uses these adhesives, but wanted to make sure you were aware of your options for alternatives.  Adheco stocks 3M's line of structural adhesives (such as DP-8405) which is an excellent alternative performance wise, and is readily available.  I've attached the technical datasheet of this product for your review.  If you'd like more info on this product or similar, I'd be happy to provide.&lt;br&gt;&lt;br&gt;
+{first_name}, is this something you might be interested in?&lt;br&gt;&lt;br&gt;
+Let me know!&lt;br&gt;&lt;br&gt;
+Thanks,&lt;br&gt;&lt;br&gt;&lt;br&gt;
+&lt;/span&gt;
+&lt;span style="font-size:1.2em;font-weight:bold;"&gt;Josh Davis, P.Eng.&lt;/span&gt;&lt;br&gt;
+&lt;span style="font-size:1.05rem;"&gt;Applications Engineer&lt;/span&gt;&lt;br&gt;&lt;br&gt;
+&lt;span style="font-size:1.05rem;font-weight:bold;color:darkblue;"&gt;Adheco Ltd.&lt;/span&gt;&lt;br&gt;
+&lt;span style="font-size:0.9rem;text-decoration:none;"&gt; 
+  Cell:  &lt;span style="font-weight:bold;"&gt;647-290-0178&lt;/span&gt;&lt;br&gt;
+  50 Ironside Crescent, Unit 6&lt;br&gt;
+  Scarborough, ON, M1X 1G4&lt;br&gt;
+&lt;/span&gt;
+  &lt;span style="font-size:0.9rem"&gt;&lt;a href="www.adheco.com"&gt;www.adheco.com&lt;/a&gt;&lt;br&gt;&lt;/span&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="6" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="6" t="n"/>
+    </row>
+    <row r="9" ht="15.95" customHeight="1">
+      <c r="B9" s="4" t="n"/>
+    </row>
+    <row r="10" ht="15.95" customHeight="1">
+      <c r="B10" s="4" t="n"/>
+    </row>
+    <row r="11" ht="15.95" customHeight="1">
+      <c r="B11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="15.95" customHeight="1">
+      <c r="B12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="15.95" customHeight="1">
+      <c r="B13" s="4" t="n"/>
+    </row>
+    <row r="14" ht="15.95" customHeight="1">
+      <c r="B14" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>